--- a/server-res/excel/Cfg_Monster.xlsx
+++ b/server-res/excel/Cfg_Monster.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,15 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
-  <si>
-    <t>uint32</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +56,6 @@
     <t>名字</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>uint64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掩码</t>
   </si>
   <si>
@@ -103,9 +93,6 @@
   <si>
     <t>类型0:普通1:精英2:boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
   </si>
   <si>
     <t>闪避</t>
@@ -193,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,6 +232,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -292,7 +282,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +317,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,232 +554,233 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="1">
+        <v>1010001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>27</v>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1010001</v>
+      </c>
+      <c r="J3" s="1">
+        <f>200000000+A3</f>
+        <v>201010001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>100</v>
+      </c>
+      <c r="W3" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1010001</v>
+        <v>1010002</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -801,14 +792,14 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>1010001</v>
+        <v>1010002</v>
       </c>
       <c r="J4" s="1">
-        <f>200000000+A4</f>
-        <v>201010001</v>
+        <f t="shared" ref="J4:J7" si="0">200000000+A4</f>
+        <v>201010002</v>
       </c>
       <c r="K4" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L4" s="1">
         <v>0</v>
@@ -820,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="O4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -849,23 +840,23 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1010002</v>
+        <v>1010003</v>
       </c>
       <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
@@ -873,14 +864,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>1010002</v>
+        <v>1010003</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:J8" si="0">200000000+A5</f>
-        <v>201010002</v>
+        <f t="shared" si="0"/>
+        <v>201010003</v>
       </c>
       <c r="K5" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="L5" s="1">
         <v>0</v>
@@ -892,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="1">
         <v>5</v>
@@ -921,19 +912,19 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>1010003</v>
+        <v>1010004</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
@@ -945,14 +936,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1010003</v>
+        <v>1010004</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="0"/>
-        <v>201010003</v>
+        <v>201010004</v>
       </c>
       <c r="K6" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="L6" s="1">
         <v>0</v>
@@ -961,7 +952,7 @@
         <v>20000</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>4</v>
@@ -993,22 +984,22 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>1010004</v>
+        <v>1010005</v>
       </c>
       <c r="B7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -1017,11 +1008,11 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>1010004</v>
+        <v>1010005</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="0"/>
-        <v>201010004</v>
+        <v>201010005</v>
       </c>
       <c r="K7" s="1">
         <v>200</v>
@@ -1033,7 +1024,7 @@
         <v>20000</v>
       </c>
       <c r="N7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
         <v>4</v>
@@ -1060,78 +1051,6 @@
         <v>100</v>
       </c>
       <c r="W7" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>1010005</v>
-      </c>
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1010005</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="0"/>
-        <v>201010005</v>
-      </c>
-      <c r="K8" s="1">
-        <v>200</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>20000</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3</v>
-      </c>
-      <c r="O8" s="1">
-        <v>4</v>
-      </c>
-      <c r="P8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>5</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1">
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <v>100</v>
-      </c>
-      <c r="W8" s="1">
         <v>20</v>
       </c>
     </row>
